--- a/해커톤/최종규격/박병창_최종규격.xlsx
+++ b/해커톤/최종규격/박병창_최종규격.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wlska\Documents\Coala_study\해커톤\최종규격\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GS43VR\Documents\Coala_study\해커톤\최종규격\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FC722AA-DBD9-4B50-97C9-2D52476C03E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4BF2656-D3CA-4BC5-95F1-25652202C3EB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8085" yWindow="3450" windowWidth="48240" windowHeight="11010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="80">
   <si>
     <t>썸네일</t>
   </si>
@@ -46,228 +46,6 @@
     <t>영상길이</t>
   </si>
   <si>
-    <t>[박병창] 전기,난방 요금 줄이는 만큼 용돈준다는 말에 30만원 아낀 남편 ㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>다음생에도 결혼하자고하니 진심으로 화내고 가버리는 와이프... [vlog]</t>
-  </si>
-  <si>
-    <t>2020년 오기 전부터 도전한 금연! 이번에는 할 수 있을까?</t>
-  </si>
-  <si>
-    <t>창이의 일상 편집자 입니다.  허락 없이 한편만 올릴게요!! 괜찮죠 창이 님??</t>
-  </si>
-  <si>
-    <t>제딸 용돈은 앞으로 안주도록 하겠습니다.</t>
-  </si>
-  <si>
-    <t>닭발계의 파퀴칩스 화생방불닭발 +화생방 오돌뼈+마요주먹밥+스파게티면 한번 먹어볼게요^.^</t>
-  </si>
-  <si>
-    <t>27.9살 남자가 미용실에서 다운펌,염색,이발 하는 영상입니다.(feat.금강연화)</t>
-  </si>
-  <si>
-    <t>가족들과 공원가서 배드민턴치고 소소하게 즐기다 왔어요!!</t>
-  </si>
-  <si>
-    <t>검정바지에 흰티 입고 패딩vs야상패딩 비교하고왔습니다.여러분들 의견은 ??</t>
-  </si>
-  <si>
-    <t>노래방에서 노래부르는데 허각이 나타난다면...?남자들은 어떻게 행동할까??(feat.허각)</t>
-  </si>
-  <si>
-    <t>유튜버 서언수 실제 인성입니다.</t>
-  </si>
-  <si>
-    <t>금복주... 여러분들은 어떤술인지 아시나요 ?? 주량테스트(feat.회식)</t>
-  </si>
-  <si>
-    <t>커플티 극혐하는 아내에게 커플티 하자고 귀여운척 조금 했습니다...(feat.슈펜)</t>
-  </si>
-  <si>
-    <t>아빠랑 같이잘려는 딸. 끌고내려가는 엄마ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>치킨집 사장 딸이 치킨을 싫어하는 이유 공개합니다.(feat.아빠가 치킨집사장)</t>
-  </si>
-  <si>
-    <t>대구 싸움 유튜버 문찬2랑 싸우고 왔는데 제가 이겼습니다ㅎㅎ(feat.햄벅)</t>
-  </si>
-  <si>
-    <t>이사한 지 11개월... 진지하게 이사갈까 고민중입니다...</t>
-  </si>
-  <si>
-    <t>겨울옷 뭐사야할지 몰라서 한매장에서 150만원 다 지름 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>3억 원 투자해서 만든 밥집 망했습니다.</t>
-  </si>
-  <si>
-    <t>똥밖에 없는 놀이똥산과 런닝맨에서 화원이와 싸리를 찾으러 떠납니다!!!(feat.화원TV)</t>
-  </si>
-  <si>
-    <t>맨날 일만 하다가 힘들고 지쳐서 가족들과 힐링 여행 다녀왔습니다.(feat 켄싱턴리조트 설악 밸리)</t>
-  </si>
-  <si>
-    <t>눈썹 반을 밀어버렸더니 더 잘생겨졌습니다.</t>
-  </si>
-  <si>
-    <t>선착순 천명에게 만원쿠폰 드립니다!!! 올겨울 첫 코디 시작합니다(feat.미스터스트릿)</t>
-  </si>
-  <si>
-    <t>와이프 때문에 새벽두시에 카카오페이 신고센터에서 전화왔습니다..;;실제상황입니다</t>
-  </si>
-  <si>
-    <t>(달달브이로그)....이혼하자고 말했습니다.</t>
-  </si>
-  <si>
-    <t>남자 짧은머리(병장전역)남들과는 다르게 드라이 하는방법!!</t>
-  </si>
-  <si>
-    <t>온가족 피크닉 즐기고 처음으로 가족사진 찍고 왔습니다 ㅎㅎ</t>
-  </si>
-  <si>
-    <t>제품1도모르는 남편이 더빙해주는 아내의 메이크업!!ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>머리 짧게 자르고 딸한테 가니 반응이..어떡하죠 ..</t>
-  </si>
-  <si>
-    <t>냉동 식품으로만 아침을 차리는 착한?남편(feat.집으로포차)</t>
-  </si>
-  <si>
-    <t>내딸(초등)1학년 용돈 정해주다가 오늘 따로 잘뻔했습니다.......</t>
-  </si>
-  <si>
-    <t>남편이 집에 아무도없을때 하는 행동aviㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>대구에 초대형 술집 차리신 유튜버성명준 형님...</t>
-  </si>
-  <si>
-    <t>올가을 남들과는 조금다른 코디, 여러분들의 선택은 어떤코디인가요??</t>
-  </si>
-  <si>
-    <t>[주작x] 앞으로 눈물나게 하지 않을게...몰라서 미안하다... 1단계먹자....</t>
-  </si>
-  <si>
-    <t>금강연화와 이발중 자꾸 시비걸어서 진짜 화났습니다......물론 몰카 금강연화가요 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>우리아내 화이팅 하라고 100만원 어치 선물그냥 사주기ㅎㅎ</t>
-  </si>
-  <si>
-    <t>잘생긴 남자가 걸어다니면 몇명이 돌아볼까??</t>
-  </si>
-  <si>
-    <t>와이프 화장품으로 외출 준비하기ㅋㅋㅋ(feat.에이바자르)</t>
-  </si>
-  <si>
-    <t>처음으로 와이프 자는 몰래 새벽탈출 도전합니다ㅋㅋ 성공? 실패 ??</t>
-  </si>
-  <si>
-    <t>딸과 함께 아빠문신에 색칠놀이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>헬스장 에서 버스킹하는 허각 형님...? (feat,조제알통)</t>
-  </si>
-  <si>
-    <t>키스마크 새겨서 그냥 그대로 나갑니다 ㅎㅎ(feat.허아현)</t>
-  </si>
-  <si>
-    <t>혹시 집에 스트라이프 티셔츠 있나요?? 비교한번해보실래요?!</t>
-  </si>
-  <si>
-    <t>무작정 미용실가서 잘생기게 해달라고 하기ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ(feat.금강연화)</t>
-  </si>
-  <si>
-    <t>아내랑 회전초밥 먹으러 갔다가 100만원 순삭당했습니다...ㅎㄷㄷ</t>
-  </si>
-  <si>
-    <t>제품1도 모르는  아내가 더빙해주는 남편의 겟레디윗미!!</t>
-  </si>
-  <si>
-    <t>성명준 형한테 렌드로버 샀다고 자랑했습니다ㅎㅎ</t>
-  </si>
-  <si>
-    <t>2살 딸 놀아주다가 자기가 더 재미있어하는 아빠ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>10년 연애 끝에 결혼을 한 동생들 결혼식 사회 다녀왔습니다.</t>
-  </si>
-  <si>
-    <t>옷 잘입는단 소리보단 지적 안받고 싶은사람은 꼭 봐야하는 영상입니다.</t>
-  </si>
-  <si>
-    <t>한놈때문에 내 모든 추억이 다 날라갔습니다.</t>
-  </si>
-  <si>
-    <t>2살 된 딸이 술취한 아빠랑 놀아주는 방법 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>미용실 찾아가서 무작정 섹시하게 머리 해달라고 하고 앉아버리깈ㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>가족들을 위해 SUV 자동차 하나 더 뽑았습니다!! ㅎㅎ</t>
-  </si>
-  <si>
-    <t>아이돌 메이크업 이가리 메이크업 받고왔습니다(feat.BOKI)</t>
-  </si>
-  <si>
-    <t>모델들이 촬영하는방법, 애아빠 모델일 탈출기 (feat.오너러블실루엣)</t>
-  </si>
-  <si>
-    <t>어머님들이 즐겨보시는 KBS"아침마당"  방송 출연하고 왔습니다!!</t>
-  </si>
-  <si>
-    <t>첫쨰딸(초등학교1학년) 첫 스마트폰 사주고 왔습니다!!</t>
-  </si>
-  <si>
-    <t>대란템 한정판 선물 받았습니다!! 이걸 다 준다고???(이벤트 있어요!!!)</t>
-  </si>
-  <si>
-    <t>[박병창]유명 유튜버 분들과 자선농구대회 하고왔습니다!!</t>
-  </si>
-  <si>
-    <t>27년 살면서 머리 다듬어 달라는 말의 진짜를 알았습니다. (feat,금강연화)</t>
-  </si>
-  <si>
-    <t>이 코는 누구코일까요?[안산]</t>
-  </si>
-  <si>
-    <t>와이프가 갑자기 부산가고싶다고해서 바로 출발하는 브이로그 [vlog]</t>
-  </si>
-  <si>
-    <t>맨날 늦는 친구 때문에 오자마자 한 잔 먹고 술자리 끝내기 참교육ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>와이프 자는 몰래 양팔 문신하고 집에 왔는데 진짜로 쫓겨날뻔했습니다..</t>
-  </si>
-  <si>
-    <t>남자 유튜버가 여고가서 인생상담 해주고 왔습니다.[박병창이 간다]</t>
-  </si>
-  <si>
-    <t>전국 자영업자분들에게 한말씀 올리겠습니다.꼭 봐주세요.</t>
-  </si>
-  <si>
-    <t>대구에 아쿠아리움이 있다는걸 처음알고... 혼자다녀왔습니다..ㅠㅠㅠ</t>
-  </si>
-  <si>
-    <t>아내가 잭스를 계속 거부했을때 남편 실제반응ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>가족들과 한 여름 호캉스 힐링여행기[vlog]feat.평창 켕신턴 호텔</t>
-  </si>
-  <si>
-    <t>화원이(딸)이랑 와우엔터테인먼트 5년만에 다녀왔습니다!!!</t>
-  </si>
-  <si>
-    <t>킹기훈 웃으면 안되는 집들이 다녀왔습니닼ㅋㅋㅋㅋㅋ</t>
-  </si>
-  <si>
-    <t>오랜만에 아빠를 만난 딸... 알아볼까??</t>
-  </si>
-  <si>
     <t>10:49</t>
   </si>
   <si>
@@ -476,6 +254,14 @@
   </si>
   <si>
     <t>4:14</t>
+  </si>
+  <si>
+    <t>일상</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>구독자 수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -514,7 +300,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -537,13 +323,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -884,15 +684,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H75"/>
+  <dimension ref="A1:I75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:I75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -917,16 +717,19 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="I1" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>3.5</v>
       </c>
-      <c r="B2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
       </c>
       <c r="D2">
         <v>13523</v>
@@ -941,18 +744,21 @@
         <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+      <c r="I2">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2.5</v>
       </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
       </c>
       <c r="D3">
         <v>59410</v>
@@ -967,18 +773,21 @@
         <v>3</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="I3">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3.5</v>
       </c>
-      <c r="B4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
       </c>
       <c r="D4">
         <v>69557</v>
@@ -993,18 +802,21 @@
         <v>3</v>
       </c>
       <c r="H4" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+      <c r="I4">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>2.5</v>
       </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
       </c>
       <c r="D5">
         <v>48266</v>
@@ -1019,18 +831,21 @@
         <v>3</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+        <v>11</v>
+      </c>
+      <c r="I5">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>3.5</v>
       </c>
-      <c r="B6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
       </c>
       <c r="D6">
         <v>258751</v>
@@ -1045,18 +860,21 @@
         <v>3</v>
       </c>
       <c r="H6" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+      <c r="I6">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>2</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
       </c>
       <c r="D7">
         <v>65956</v>
@@ -1071,18 +889,21 @@
         <v>3</v>
       </c>
       <c r="H7" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+        <v>13</v>
+      </c>
+      <c r="I7">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>2.5</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
+      <c r="B8">
+        <v>1</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
       </c>
       <c r="D8">
         <v>111257</v>
@@ -1097,18 +918,21 @@
         <v>3</v>
       </c>
       <c r="H8" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+        <v>14</v>
+      </c>
+      <c r="I8">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>3.5</v>
       </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s">
+        <v>78</v>
       </c>
       <c r="D9">
         <v>63800</v>
@@ -1123,18 +947,21 @@
         <v>3</v>
       </c>
       <c r="H9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+      <c r="I9">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>2.5</v>
       </c>
-      <c r="B10" t="s">
-        <v>16</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s">
+        <v>78</v>
       </c>
       <c r="D10">
         <v>55520</v>
@@ -1149,18 +976,21 @@
         <v>3</v>
       </c>
       <c r="H10" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="I10">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>3.5</v>
       </c>
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s">
+        <v>78</v>
       </c>
       <c r="D11">
         <v>190317</v>
@@ -1175,18 +1005,21 @@
         <v>3</v>
       </c>
       <c r="H11" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="I11">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>3</v>
       </c>
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s">
+        <v>78</v>
       </c>
       <c r="D12">
         <v>38702</v>
@@ -1201,18 +1034,21 @@
         <v>3</v>
       </c>
       <c r="H12" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="I12">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>2.5</v>
       </c>
-      <c r="B13" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
+      <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s">
+        <v>78</v>
       </c>
       <c r="D13">
         <v>91538</v>
@@ -1227,18 +1063,21 @@
         <v>3</v>
       </c>
       <c r="H13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+        <v>19</v>
+      </c>
+      <c r="I13">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>3.5</v>
       </c>
-      <c r="B14" t="s">
-        <v>20</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
+      <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s">
+        <v>78</v>
       </c>
       <c r="D14">
         <v>235784</v>
@@ -1253,18 +1092,21 @@
         <v>3</v>
       </c>
       <c r="H14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+        <v>20</v>
+      </c>
+      <c r="I14">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>3.5</v>
       </c>
-      <c r="B15" t="s">
-        <v>21</v>
-      </c>
-      <c r="C15">
-        <v>1</v>
+      <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
       </c>
       <c r="D15">
         <v>198274</v>
@@ -1279,18 +1121,21 @@
         <v>3</v>
       </c>
       <c r="H15" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="I15">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>3.5</v>
       </c>
-      <c r="B16" t="s">
-        <v>22</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
+      <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s">
+        <v>78</v>
       </c>
       <c r="D16">
         <v>256256</v>
@@ -1305,18 +1150,21 @@
         <v>3</v>
       </c>
       <c r="H16" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+        <v>22</v>
+      </c>
+      <c r="I16">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>3.5</v>
       </c>
-      <c r="B17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C17">
-        <v>1</v>
+      <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s">
+        <v>78</v>
       </c>
       <c r="D17">
         <v>113302</v>
@@ -1331,18 +1179,21 @@
         <v>3</v>
       </c>
       <c r="H17" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I17">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>3.5</v>
       </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18">
-        <v>1</v>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s">
+        <v>78</v>
       </c>
       <c r="D18">
         <v>537952</v>
@@ -1357,18 +1208,21 @@
         <v>3</v>
       </c>
       <c r="H18" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I18">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>2.5</v>
       </c>
-      <c r="B19" t="s">
-        <v>25</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
       </c>
       <c r="D19">
         <v>289350</v>
@@ -1383,18 +1237,21 @@
         <v>3</v>
       </c>
       <c r="H19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+        <v>25</v>
+      </c>
+      <c r="I19">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>2.5</v>
       </c>
-      <c r="B20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20">
-        <v>1</v>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>78</v>
       </c>
       <c r="D20">
         <v>560320</v>
@@ -1409,18 +1266,21 @@
         <v>3</v>
       </c>
       <c r="H20" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+      <c r="I20">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>3.5</v>
       </c>
-      <c r="B21" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21">
-        <v>1</v>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s">
+        <v>78</v>
       </c>
       <c r="D21">
         <v>36316</v>
@@ -1435,18 +1295,21 @@
         <v>3</v>
       </c>
       <c r="H21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+      <c r="I21">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>3.5</v>
       </c>
-      <c r="B22" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22">
-        <v>1</v>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s">
+        <v>78</v>
       </c>
       <c r="D22">
         <v>215876</v>
@@ -1461,18 +1324,21 @@
         <v>3</v>
       </c>
       <c r="H22" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+        <v>28</v>
+      </c>
+      <c r="I22">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.5</v>
       </c>
-      <c r="B23" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
+      <c r="B23">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s">
+        <v>78</v>
       </c>
       <c r="D23">
         <v>28450</v>
@@ -1487,18 +1353,21 @@
         <v>3</v>
       </c>
       <c r="H23" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+        <v>29</v>
+      </c>
+      <c r="I23">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.5</v>
       </c>
-      <c r="B24" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
+      <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s">
+        <v>78</v>
       </c>
       <c r="D24">
         <v>57208</v>
@@ -1513,18 +1382,21 @@
         <v>3</v>
       </c>
       <c r="H24" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+      <c r="I24">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.5</v>
       </c>
-      <c r="B25" t="s">
-        <v>31</v>
-      </c>
-      <c r="C25">
-        <v>1</v>
+      <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s">
+        <v>78</v>
       </c>
       <c r="D25">
         <v>511400</v>
@@ -1539,18 +1411,21 @@
         <v>3</v>
       </c>
       <c r="H25" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+        <v>31</v>
+      </c>
+      <c r="I25">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2.5</v>
       </c>
-      <c r="B26" t="s">
-        <v>32</v>
-      </c>
-      <c r="C26">
-        <v>1</v>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s">
+        <v>78</v>
       </c>
       <c r="D26">
         <v>439227</v>
@@ -1565,18 +1440,21 @@
         <v>3</v>
       </c>
       <c r="H26" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+      <c r="I26">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5</v>
       </c>
-      <c r="B27" t="s">
-        <v>33</v>
-      </c>
-      <c r="C27">
-        <v>1</v>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
       </c>
       <c r="D27">
         <v>136912</v>
@@ -1591,18 +1469,21 @@
         <v>3</v>
       </c>
       <c r="H27" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+        <v>33</v>
+      </c>
+      <c r="I27">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>3.5</v>
       </c>
-      <c r="B28" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28">
-        <v>1</v>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s">
+        <v>78</v>
       </c>
       <c r="D28">
         <v>135552</v>
@@ -1617,18 +1498,21 @@
         <v>3</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
+        <v>34</v>
+      </c>
+      <c r="I28">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>3.5</v>
       </c>
-      <c r="B29" t="s">
-        <v>35</v>
-      </c>
-      <c r="C29">
-        <v>1</v>
+      <c r="B29">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
       </c>
       <c r="D29">
         <v>124634</v>
@@ -1643,18 +1527,21 @@
         <v>3</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+      <c r="I29">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>3.5</v>
       </c>
-      <c r="B30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C30">
-        <v>1</v>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
       </c>
       <c r="D30">
         <v>178759</v>
@@ -1669,18 +1556,21 @@
         <v>3</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I30">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.5</v>
       </c>
-      <c r="B31" t="s">
-        <v>37</v>
-      </c>
-      <c r="C31">
-        <v>1</v>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>78</v>
       </c>
       <c r="D31">
         <v>254481</v>
@@ -1695,18 +1585,21 @@
         <v>3</v>
       </c>
       <c r="H31" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+      <c r="I31">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3.5</v>
       </c>
-      <c r="B32" t="s">
-        <v>38</v>
-      </c>
-      <c r="C32">
-        <v>1</v>
+      <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s">
+        <v>78</v>
       </c>
       <c r="D32">
         <v>569977</v>
@@ -1721,18 +1614,21 @@
         <v>3</v>
       </c>
       <c r="H32" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>2.5</v>
       </c>
-      <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33">
-        <v>1</v>
+      <c r="B33">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s">
+        <v>78</v>
       </c>
       <c r="D33">
         <v>131477</v>
@@ -1747,18 +1643,21 @@
         <v>3</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
+        <v>36</v>
+      </c>
+      <c r="I33">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>2.5</v>
       </c>
-      <c r="B34" t="s">
-        <v>40</v>
-      </c>
-      <c r="C34">
-        <v>1</v>
+      <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34" t="s">
+        <v>78</v>
       </c>
       <c r="D34">
         <v>82825</v>
@@ -1773,18 +1672,21 @@
         <v>3</v>
       </c>
       <c r="H34" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
+        <v>39</v>
+      </c>
+      <c r="I34">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>2.5</v>
       </c>
-      <c r="B35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C35">
-        <v>1</v>
+      <c r="B35">
+        <v>1</v>
+      </c>
+      <c r="C35" t="s">
+        <v>78</v>
       </c>
       <c r="D35">
         <v>74508</v>
@@ -1799,18 +1701,21 @@
         <v>3</v>
       </c>
       <c r="H35" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+        <v>40</v>
+      </c>
+      <c r="I35">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3.5</v>
       </c>
-      <c r="B36" t="s">
-        <v>42</v>
-      </c>
-      <c r="C36">
-        <v>1</v>
+      <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36" t="s">
+        <v>78</v>
       </c>
       <c r="D36">
         <v>320066</v>
@@ -1825,18 +1730,21 @@
         <v>3</v>
       </c>
       <c r="H36" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+      <c r="I36">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3.5</v>
       </c>
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
+      <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s">
+        <v>78</v>
       </c>
       <c r="D37">
         <v>233684</v>
@@ -1851,18 +1759,21 @@
         <v>3</v>
       </c>
       <c r="H37" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+      <c r="I37">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>2.5</v>
       </c>
-      <c r="B38" t="s">
-        <v>44</v>
-      </c>
-      <c r="C38">
-        <v>1</v>
+      <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s">
+        <v>78</v>
       </c>
       <c r="D38">
         <v>162200</v>
@@ -1877,18 +1788,21 @@
         <v>3</v>
       </c>
       <c r="H38" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="I38">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>2.5</v>
       </c>
-      <c r="B39" t="s">
-        <v>45</v>
-      </c>
-      <c r="C39">
-        <v>1</v>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>78</v>
       </c>
       <c r="D39">
         <v>201921</v>
@@ -1903,18 +1817,21 @@
         <v>3</v>
       </c>
       <c r="H39" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I39">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>2.5</v>
       </c>
-      <c r="B40" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40">
-        <v>1</v>
+      <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s">
+        <v>78</v>
       </c>
       <c r="D40">
         <v>127412</v>
@@ -1929,18 +1846,21 @@
         <v>3</v>
       </c>
       <c r="H40" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+        <v>44</v>
+      </c>
+      <c r="I40">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>2.5</v>
       </c>
-      <c r="B41" t="s">
-        <v>47</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
+      <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41" t="s">
+        <v>78</v>
       </c>
       <c r="D41">
         <v>220958</v>
@@ -1955,18 +1875,21 @@
         <v>3</v>
       </c>
       <c r="H41" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45</v>
+      </c>
+      <c r="I41">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>2.5</v>
       </c>
-      <c r="B42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C42">
-        <v>1</v>
+      <c r="B42">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s">
+        <v>78</v>
       </c>
       <c r="D42">
         <v>1163231</v>
@@ -1981,18 +1904,21 @@
         <v>3</v>
       </c>
       <c r="H42" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I42">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>2.5</v>
       </c>
-      <c r="B43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43">
-        <v>1</v>
+      <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s">
+        <v>78</v>
       </c>
       <c r="D43">
         <v>24546</v>
@@ -2007,18 +1933,21 @@
         <v>3</v>
       </c>
       <c r="H43" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="I43">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>3.5</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s">
+        <v>78</v>
       </c>
       <c r="D44">
         <v>647578</v>
@@ -2033,18 +1962,21 @@
         <v>3</v>
       </c>
       <c r="H44" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+        <v>48</v>
+      </c>
+      <c r="I44">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>2.5</v>
       </c>
-      <c r="B45" t="s">
-        <v>51</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
+      <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s">
+        <v>78</v>
       </c>
       <c r="D45">
         <v>20725</v>
@@ -2059,18 +1991,21 @@
         <v>3</v>
       </c>
       <c r="H45" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+        <v>49</v>
+      </c>
+      <c r="I45">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>3.5</v>
       </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46">
-        <v>1</v>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s">
+        <v>78</v>
       </c>
       <c r="D46">
         <v>99502</v>
@@ -2085,18 +2020,21 @@
         <v>3</v>
       </c>
       <c r="H46" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+        <v>50</v>
+      </c>
+      <c r="I46">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>2.5</v>
       </c>
-      <c r="B47" t="s">
-        <v>53</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
+      <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47" t="s">
+        <v>78</v>
       </c>
       <c r="D47">
         <v>412964</v>
@@ -2111,18 +2049,21 @@
         <v>3</v>
       </c>
       <c r="H47" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I47">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>3.5</v>
       </c>
-      <c r="B48" t="s">
-        <v>54</v>
-      </c>
-      <c r="C48">
-        <v>1</v>
+      <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s">
+        <v>78</v>
       </c>
       <c r="D48">
         <v>372550</v>
@@ -2137,18 +2078,21 @@
         <v>3</v>
       </c>
       <c r="H48" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+        <v>52</v>
+      </c>
+      <c r="I48">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>2.5</v>
       </c>
-      <c r="B49" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49">
-        <v>1</v>
+      <c r="B49">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s">
+        <v>78</v>
       </c>
       <c r="D49">
         <v>217986</v>
@@ -2163,18 +2107,21 @@
         <v>3</v>
       </c>
       <c r="H49" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+        <v>53</v>
+      </c>
+      <c r="I49">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>3.5</v>
       </c>
-      <c r="B50" t="s">
-        <v>56</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
+      <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50" t="s">
+        <v>78</v>
       </c>
       <c r="D50">
         <v>79069</v>
@@ -2189,18 +2136,21 @@
         <v>3</v>
       </c>
       <c r="H50" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+        <v>54</v>
+      </c>
+      <c r="I50">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>2.5</v>
       </c>
-      <c r="B51" t="s">
-        <v>57</v>
-      </c>
-      <c r="C51">
-        <v>1</v>
+      <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s">
+        <v>78</v>
       </c>
       <c r="D51">
         <v>89570</v>
@@ -2215,18 +2165,21 @@
         <v>3</v>
       </c>
       <c r="H51" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
+        <v>55</v>
+      </c>
+      <c r="I51">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>2.5</v>
       </c>
-      <c r="B52" t="s">
-        <v>58</v>
-      </c>
-      <c r="C52">
-        <v>1</v>
+      <c r="B52">
+        <v>1</v>
+      </c>
+      <c r="C52" t="s">
+        <v>78</v>
       </c>
       <c r="D52">
         <v>82459</v>
@@ -2241,18 +2194,21 @@
         <v>3</v>
       </c>
       <c r="H52" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+      <c r="I52">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>2.5</v>
       </c>
-      <c r="B53" t="s">
-        <v>59</v>
-      </c>
-      <c r="C53">
-        <v>1</v>
+      <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53" t="s">
+        <v>78</v>
       </c>
       <c r="D53">
         <v>179797</v>
@@ -2267,18 +2223,21 @@
         <v>3</v>
       </c>
       <c r="H53" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
+        <v>57</v>
+      </c>
+      <c r="I53">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>3.5</v>
       </c>
-      <c r="B54" t="s">
-        <v>60</v>
-      </c>
-      <c r="C54">
-        <v>1</v>
+      <c r="B54">
+        <v>1</v>
+      </c>
+      <c r="C54" t="s">
+        <v>78</v>
       </c>
       <c r="D54">
         <v>292803</v>
@@ -2293,18 +2252,21 @@
         <v>3</v>
       </c>
       <c r="H54" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+      <c r="I54">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>2.5</v>
       </c>
-      <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55">
-        <v>1</v>
+      <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55" t="s">
+        <v>78</v>
       </c>
       <c r="D55">
         <v>74258</v>
@@ -2319,18 +2281,21 @@
         <v>3</v>
       </c>
       <c r="H55" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+      <c r="I55">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>2.5</v>
       </c>
-      <c r="B56" t="s">
-        <v>62</v>
-      </c>
-      <c r="C56">
-        <v>1</v>
+      <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56" t="s">
+        <v>78</v>
       </c>
       <c r="D56">
         <v>240415</v>
@@ -2345,18 +2310,21 @@
         <v>3</v>
       </c>
       <c r="H56" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+        <v>46</v>
+      </c>
+      <c r="I56">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>2.5</v>
       </c>
-      <c r="B57" t="s">
-        <v>63</v>
-      </c>
-      <c r="C57">
-        <v>1</v>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="C57" t="s">
+        <v>78</v>
       </c>
       <c r="D57">
         <v>41438</v>
@@ -2371,18 +2339,21 @@
         <v>3</v>
       </c>
       <c r="H57" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+      <c r="I57">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>3.5</v>
       </c>
-      <c r="B58" t="s">
-        <v>64</v>
-      </c>
-      <c r="C58">
-        <v>1</v>
+      <c r="B58">
+        <v>1</v>
+      </c>
+      <c r="C58" t="s">
+        <v>78</v>
       </c>
       <c r="D58">
         <v>75553</v>
@@ -2397,18 +2368,21 @@
         <v>3</v>
       </c>
       <c r="H58" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+      <c r="I58">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>2.5</v>
       </c>
-      <c r="B59" t="s">
-        <v>65</v>
-      </c>
-      <c r="C59">
-        <v>1</v>
+      <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59" t="s">
+        <v>78</v>
       </c>
       <c r="D59">
         <v>47337</v>
@@ -2423,18 +2397,21 @@
         <v>3</v>
       </c>
       <c r="H59" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+        <v>61</v>
+      </c>
+      <c r="I59">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>2.5</v>
       </c>
-      <c r="B60" t="s">
-        <v>66</v>
-      </c>
-      <c r="C60">
-        <v>1</v>
+      <c r="B60">
+        <v>1</v>
+      </c>
+      <c r="C60" t="s">
+        <v>78</v>
       </c>
       <c r="D60">
         <v>442314</v>
@@ -2449,18 +2426,21 @@
         <v>3</v>
       </c>
       <c r="H60" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+      <c r="I60">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>3.5</v>
       </c>
-      <c r="B61" t="s">
-        <v>67</v>
-      </c>
-      <c r="C61">
-        <v>1</v>
+      <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61" t="s">
+        <v>78</v>
       </c>
       <c r="D61">
         <v>43609</v>
@@ -2475,18 +2455,21 @@
         <v>3</v>
       </c>
       <c r="H61" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+        <v>63</v>
+      </c>
+      <c r="I61">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>3.5</v>
       </c>
-      <c r="B62" t="s">
-        <v>68</v>
-      </c>
-      <c r="C62">
-        <v>1</v>
+      <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>78</v>
       </c>
       <c r="D62">
         <v>68567</v>
@@ -2501,18 +2484,21 @@
         <v>3</v>
       </c>
       <c r="H62" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+      <c r="I62">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>3.5</v>
       </c>
-      <c r="B63" t="s">
-        <v>69</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
+      <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>78</v>
       </c>
       <c r="D63">
         <v>265795</v>
@@ -2527,18 +2513,21 @@
         <v>3</v>
       </c>
       <c r="H63" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+        <v>65</v>
+      </c>
+      <c r="I63">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>1</v>
       </c>
-      <c r="B64" t="s">
-        <v>70</v>
-      </c>
-      <c r="C64">
-        <v>1</v>
+      <c r="B64">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>78</v>
       </c>
       <c r="D64">
         <v>42775</v>
@@ -2553,18 +2542,21 @@
         <v>3</v>
       </c>
       <c r="H64" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+      <c r="I64">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>3.5</v>
       </c>
-      <c r="B65" t="s">
-        <v>71</v>
-      </c>
-      <c r="C65">
-        <v>1</v>
+      <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>78</v>
       </c>
       <c r="D65">
         <v>195170</v>
@@ -2579,18 +2571,21 @@
         <v>3</v>
       </c>
       <c r="H65" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+        <v>67</v>
+      </c>
+      <c r="I65">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>2.5</v>
       </c>
-      <c r="B66" t="s">
-        <v>72</v>
-      </c>
-      <c r="C66">
-        <v>1</v>
+      <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>78</v>
       </c>
       <c r="D66">
         <v>106167</v>
@@ -2605,18 +2600,21 @@
         <v>3</v>
       </c>
       <c r="H66" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+        <v>68</v>
+      </c>
+      <c r="I66">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>2.5</v>
       </c>
-      <c r="B67" t="s">
-        <v>73</v>
-      </c>
-      <c r="C67">
-        <v>1</v>
+      <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>78</v>
       </c>
       <c r="D67">
         <v>1644141</v>
@@ -2631,18 +2629,21 @@
         <v>3</v>
       </c>
       <c r="H67" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
+        <v>69</v>
+      </c>
+      <c r="I67">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>3.5</v>
       </c>
-      <c r="B68" t="s">
-        <v>74</v>
-      </c>
-      <c r="C68">
-        <v>1</v>
+      <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
+        <v>78</v>
       </c>
       <c r="D68">
         <v>120791</v>
@@ -2657,18 +2658,21 @@
         <v>3</v>
       </c>
       <c r="H68" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+        <v>70</v>
+      </c>
+      <c r="I68">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>2.5</v>
       </c>
-      <c r="B69" t="s">
-        <v>75</v>
-      </c>
-      <c r="C69">
-        <v>1</v>
+      <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69" t="s">
+        <v>78</v>
       </c>
       <c r="D69">
         <v>49070</v>
@@ -2683,18 +2687,21 @@
         <v>3</v>
       </c>
       <c r="H69" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>71</v>
+      </c>
+      <c r="I69">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>2.5</v>
       </c>
-      <c r="B70" t="s">
-        <v>76</v>
-      </c>
-      <c r="C70">
+      <c r="B70">
         <v>0</v>
+      </c>
+      <c r="C70" t="s">
+        <v>78</v>
       </c>
       <c r="D70">
         <v>33376</v>
@@ -2709,18 +2716,21 @@
         <v>3</v>
       </c>
       <c r="H70" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+      <c r="I70">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>2.5</v>
       </c>
-      <c r="B71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C71">
-        <v>1</v>
+      <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71" t="s">
+        <v>78</v>
       </c>
       <c r="D71">
         <v>1494774</v>
@@ -2735,18 +2745,21 @@
         <v>3</v>
       </c>
       <c r="H71" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+        <v>73</v>
+      </c>
+      <c r="I71">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>3.5</v>
       </c>
-      <c r="B72" t="s">
-        <v>78</v>
-      </c>
-      <c r="C72">
-        <v>1</v>
+      <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72" t="s">
+        <v>78</v>
       </c>
       <c r="D72">
         <v>230596</v>
@@ -2761,18 +2774,21 @@
         <v>3</v>
       </c>
       <c r="H72" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+      <c r="I72">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>3.5</v>
       </c>
-      <c r="B73" t="s">
-        <v>79</v>
-      </c>
-      <c r="C73">
-        <v>1</v>
+      <c r="B73">
+        <v>1</v>
+      </c>
+      <c r="C73" t="s">
+        <v>78</v>
       </c>
       <c r="D73">
         <v>175865</v>
@@ -2787,18 +2803,21 @@
         <v>3</v>
       </c>
       <c r="H73" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+      <c r="I73">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>3.5</v>
       </c>
-      <c r="B74" t="s">
-        <v>80</v>
-      </c>
-      <c r="C74">
-        <v>1</v>
+      <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74" t="s">
+        <v>78</v>
       </c>
       <c r="D74">
         <v>60209</v>
@@ -2813,18 +2832,21 @@
         <v>3</v>
       </c>
       <c r="H74" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>76</v>
+      </c>
+      <c r="I74">
+        <v>450000</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>3.5</v>
       </c>
-      <c r="B75" t="s">
-        <v>81</v>
-      </c>
-      <c r="C75">
-        <v>1</v>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="C75" t="s">
+        <v>78</v>
       </c>
       <c r="D75">
         <v>314304</v>
@@ -2839,7 +2861,10 @@
         <v>3</v>
       </c>
       <c r="H75" t="s">
-        <v>151</v>
+        <v>77</v>
+      </c>
+      <c r="I75">
+        <v>450000</v>
       </c>
     </row>
   </sheetData>
